--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Progress" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Description" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -59,6 +60,30 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">NSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aust</t>
   </si>
   <si>
@@ -74,6 +99,9 @@
     <t xml:space="preserve">Need for services met</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
     <t xml:space="preserve">Clients experiencing family and domestic violence</t>
   </si>
   <si>
@@ -84,6 +112,33 @@
   </si>
   <si>
     <t xml:space="preserve">2014-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 30a. National Partnership Agreement on Homelessness 2015-17 outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milestone/Performance Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part 1 of project plans submitted to the Commonwealth (1 July 2015) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not applicable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part 2 of project plans submitted to the Commonwealth (1 September 2015) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Commonwealth on assessment of progress against project plans, and provide assurance funding has been matched (1 September 2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 25 per cent of total matched funding directed to addressing priority outputs</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -120,10 +175,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,7 +220,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,7 +286,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,16 +295,48 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -255,21 +357,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.6173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -285,155 +385,470 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="L5" s="6" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>76</v>
       </c>
+      <c r="G10" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="6" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>33</v>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>33.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="L15" s="6" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="6" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>36</v>
       </c>
+      <c r="E17" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -443,7 +858,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -456,71 +871,270 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="60.1632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.1836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="n">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">Figure 30a. National Partnership Agreement on Homelessness 2015-17 outcomes</t>
   </si>
   <si>
-    <t xml:space="preserve">Milestone/Performance Indicator</t>
-  </si>
-  <si>
     <t xml:space="preserve">Part 1 of project plans submitted to the Commonwealth (1 July 2015) </t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Improving</t>
+    <t xml:space="preserve">On track</t>
   </si>
   <si>
     <t xml:space="preserve">Desc Body</t>
@@ -359,12 +356,12 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -413,9 +410,7 @@
       <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -871,188 +866,199 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="60.1632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1091,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="n">
         <v>2015</v>
@@ -1093,42 +1099,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -356,17 +356,19 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -529,32 +531,32 @@
       <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>18</v>
+      <c r="D8" s="7" t="n">
+        <v>23.3999961503667</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>17.5090307369514</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>13.1976307472634</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>13.8878383362982</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>23.8159275780635</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>22.8246078922868</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>26.2771546745165</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>15.2998318699795</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>18.4585859859986</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,32 +676,32 @@
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>17</v>
+      <c r="D13" s="7" t="n">
+        <v>23.4988790471611</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>15.5294407371146</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>12.4667434652623</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>14.1770226899537</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>24.4880995261977</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>21.7135600139093</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>22.9096018735363</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>12.8932627648075</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>17.4856447698144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,32 +821,32 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>16</v>
+      <c r="D18" s="7" t="n">
+        <v>22.6366303645134</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>14.2867149126349</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>12.0006875759104</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>13.2053916223953</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>24.0283572406151</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>18.4779345541879</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>23.2458339182225</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>11.6582783188444</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>16.3422284440929</v>
       </c>
     </row>
   </sheetData>
@@ -869,21 +871,21 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D8:L8 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="60.1632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="59.3979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,14 +1081,15 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D8:L8 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -162,10 +162,10 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Note (a) NPAH funded agencies were required to participate in the SHSC administered by the Australian Institute of Health and Welfare – although some were granted an exemption by the Commonwealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(b) The SHSC does not report on NPAH initiatives exclusively, it also includes services funded under the National Affordable Housing Agreement.</t>
+    <t xml:space="preserve">NPAH funded agencies were required to participate in the SHSC administered by the Australian Institute of Health and Welfare – although some were granted an exemption by the Commonwealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SHSC does not report on NPAH initiatives exclusively, it also includes services funded under the National Affordable Housing Agreement.</t>
   </si>
 </sst>
 </file>
@@ -356,19 +356,19 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8:L8"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -871,21 +871,20 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D8:L8 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="59.3979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="58.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,15 +1080,15 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D8:L8 B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>36</v>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">On track</t>
+    <t xml:space="preserve">Negative Change</t>
   </si>
   <si>
     <t xml:space="preserve">Desc Body</t>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -99,9 +99,6 @@
     <t xml:space="preserve">Need for services met</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A </t>
-  </si>
-  <si>
     <t xml:space="preserve">Clients experiencing family and domestic violence</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
     <t xml:space="preserve">2014-15</t>
   </si>
   <si>
+    <t xml:space="preserve">2015-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Figure 30a. National Partnership Agreement on Homelessness 2015-17 outcomes</t>
   </si>
   <si>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">Completed </t>
   </si>
   <si>
-    <t xml:space="preserve">Not applicable </t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Part 2 of project plans submitted to the Commonwealth (1 September 2015) </t>
@@ -132,12 +132,22 @@
     <t xml:space="preserve">Update Commonwealth on assessment of progress against project plans, and provide assurance funding has been matched (1 September 2016) </t>
   </si>
   <si>
-    <t xml:space="preserve">In progress </t>
-  </si>
-  <si>
     <t xml:space="preserve">At least 25 per cent of total matched funding directed to addressing priority outputs</t>
   </si>
   <si>
+    <t xml:space="preserve">Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase proportion of specialist homelessness services clients with needs met for accommodation and for other services. 
+Reduce percentage of specialist homelessness services clients experiencing family and domestic violence, and young people (15-24 years old) presenting alone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Homelessness) Accomodation and services needs met</t>
+  </si>
+  <si>
     <t xml:space="preserve">Updated</t>
   </si>
   <si>
@@ -150,13 +160,13 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Under the NPAH 2015-17, more than 750 homelessness services are being delivered across Australia through over 220 homelessness initiatives. There are 47 initiatives being delivered in New South Wales, 26 in Victoria, 20 in Queensland, 22 in Western Australia, 69 in South Australia, 4 in Tasmania, 8 in the Australian Capital Territory and 28 in the Northern Territory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The most recent data from the Specialist Homelessness Services Collection (SHSC) shows that in 2014-15 specialist homelessness services (SHS) agencies provided support to an estimated 256,000 people, nationwide. Nationally, the proportion of SHS clients whose needs for accommodation services were met has decreased from 2012-13 to 2014-15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clients experiencing family or domestic violence, as a proportion of all specialist homelessness services clients, has increased. However, the rates of young people presenting alone has decreased since 2012-13.</t>
+    <t xml:space="preserve">Under the NPAH 2015-17, more than 750 homelessness services are being delivered across Australia through over 220 homelessness initiatives. There are 47 initiatives being delivered in New South Wales, 26 in Victoria, 20 in Queensland, 21 in Western Australia, 70 in South Australia, four in Tasmania, 11 in the Australian Capital Territory and 28 in the Northern Territory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most recent data from the Specialist Homelessness Services Collection (SHSC) shows that in 2015-16, specialist homelessness services agencies provided support to an estimated 279,000 people, nationwide. Nationally, the proportion of SHS clients whose needs for accommodation services were met  decreased between 2012-13 and 2015-16. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figures show that clients experiencing family or domestic violence, as a proportion of all specialist homelessness services clients, has increased. However, the proportion of young people presenting alone has decreased since 2012-13.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -166,6 +176,30 @@
   </si>
   <si>
     <t xml:space="preserve">The SHSC does not report on NPAH initiatives exclusively, it also includes services funded under the National Affordable Housing Agreement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proportion of young clients presenting alone also experienced domestic and family violence. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Data sourced from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection, AIHW Specialist Homelessness Services Collection Annual report 2015-16 and Report on Government Services 2017</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -177,7 +211,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -236,6 +270,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -253,8 +308,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF00000A"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF00000A"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF00000A"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF00000A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,8 +359,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,19 +381,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,16 +421,85 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00000A"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -354,21 +508,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="19" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -414,439 +568,612 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>78</v>
+      <c r="D5" s="7" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>97.1</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>96.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>99</v>
+      <c r="D6" s="8" t="n">
+        <v>34.0475044751987</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>33.2213233544591</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>25.6896948668516</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>35.8280455519603</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>32.6132998463096</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>22.1191720976867</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>26.8286321123822</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>40.1198465274684</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>31.8908753447311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>31.9</v>
+      <c r="D7" s="8" t="n">
+        <v>23.3999961503667</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>17.5090307369514</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>13.1976307472634</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>13.8878383362982</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>23.8159275780635</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>22.8246078922868</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>26.2771546745165</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>15.2998318699795</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>18.4585859859986</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="n">
-        <v>23.3999961503667</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>17.5090307369514</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>13.1976307472634</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>13.8878383362982</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>23.8159275780635</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>22.8246078922868</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>26.2771546745165</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>15.2998318699795</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>18.4585859859986</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
+      <c r="D9" s="7" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>97.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>91</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>76</v>
+      <c r="D10" s="8" t="n">
+        <v>35.6078731247453</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>35.7178037924883</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>26.399745833219</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>39.2871137483206</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>30.6359849639338</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>21.3174485584264</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>28.5845433255269</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>38.2909126644298</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>33.3753934524009</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>99</v>
+      <c r="D11" s="8" t="n">
+        <v>23.4988790471611</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>15.5294407371146</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>12.4667434652623</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>14.1770226899537</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>24.4880995261977</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>21.7135600139093</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>22.9096018735363</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>12.8932627648075</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>17.4856447698144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>33.4</v>
+      <c r="D12" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>23.4988790471611</v>
+        <v>97.1</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>15.5294407371146</v>
+        <v>95.3</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>12.4667434652623</v>
+        <v>96.6</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>14.1770226899537</v>
+        <v>99.2</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>24.4880995261977</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>21.7135600139093</v>
+        <v>97.7</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>22.9096018735363</v>
+        <v>98.7</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>12.8932627648075</v>
+        <v>99.2</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>17.4856447698144</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>35.9505279559733</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>40.2390442122836</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>27.9128678474577</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>41.6942864961839</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>32.6094060038927</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>23.6661117327584</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>31.0646319209096</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>42.7897248186156</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>36.1222621063431</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>74</v>
+      <c r="D15" s="8" t="n">
+        <v>22.6366303645134</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>14.2867149126349</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>12.0006875759104</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>13.2053916223953</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>24.0283572406151</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>18.4779345541879</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>23.2458339182225</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>11.6582783188444</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>16.3422284440929</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>14</v>
+      <c r="D16" s="5" t="n">
+        <v>65.8023872679045</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>67.0528064346914</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>73.4624468587624</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>85.721921560767</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>82.8086539707216</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>76.1154074955384</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>65.8703071672355</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>93.5006555534744</v>
       </c>
       <c r="L16" s="6" t="n">
-        <v>98</v>
+        <v>71.2710381470523</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>36</v>
+        <v>95.6</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>40</v>
+        <v>94.9</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>28</v>
+        <v>97.1</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>42</v>
+        <v>99.2</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>24</v>
+        <v>95.2</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>31</v>
+        <v>97.3</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>43</v>
+        <v>99.4</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>36.1</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7" t="n">
-        <v>22.6366303645134</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>14.2867149126349</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>12.0006875759104</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>13.2053916223953</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>24.0283572406151</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>18.4779345541879</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>23.2458339182225</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>11.6582783188444</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>16.3422284440929</v>
+      <c r="D18" s="8" t="n">
+        <v>33.236749623467</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>43.3823738923134</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>31.497543661707</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>44.9531049869851</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>34.7353813762083</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>27.6498282224202</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>34.32932072227</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>43.4456468273488</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>37.8296967005258</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>19.7131176934663</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>13.6930485245092</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>12.2816914651059</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>11.6803702020411</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>21.1168532873959</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>15.2182211477287</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>20.2278589853826</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>12.9119527791441</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>15.4604650496425</v>
       </c>
     </row>
   </sheetData>
@@ -870,195 +1197,196 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="58.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="58.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="9" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1078,25 +1406,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="3" t="n">
-        <v>2015</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,36 +1435,62 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="15" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="72.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -160,13 +160,16 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Under the NPAH 2015-17, more than 750 homelessness services are being delivered across Australia through over 220 homelessness initiatives. There are 47 initiatives being delivered in New South Wales, 26 in Victoria, 20 in Queensland, 21 in Western Australia, 70 in South Australia, four in Tasmania, 11 in the Australian Capital Territory and 28 in the Northern Territory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The most recent data from the Specialist Homelessness Services Collection (SHSC) shows that in 2015-16, specialist homelessness services agencies provided support to an estimated 279,000 people, nationwide. Nationally, the proportion of SHS clients whose needs for accommodation services were met  decreased between 2012-13 and 2015-16. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figures show that clients experiencing family or domestic violence, as a proportion of all specialist homelessness services clients, has increased. However, the proportion of young people presenting alone has decreased since 2012-13.</t>
+    <t xml:space="preserve">Under the NPAH 2015-17, more than 775 homelessness services are being delivered across Australia through over 220 homelessness initiatives. There are 47 initiatives being delivered in New South Wales, 26 in Victoria, 20 in Queensland, 21 in Western Australia, 70 in South Australia, four in Tasmania, 11 in the Australian Capital Territory and 28 in the Northern Territory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most recent data from the Specialist Homelessness Services Collection (SHSC) shows that in 2015-16, specialist homelessness services agencies provided support to an estimated 279,000 people, nationwide. Nationally, the proportion of SHS clients whose needs for accommodation services were met decreased between 2012-13 and 2015-16. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figures show that clients experiencing family or domestic violence, as a proportion of all specialist homelessness services clients, has increased. However, the proportion of young people presenting alone has decreased since 2012-13. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there are increases in the proportion of people who have experienced domestic or family violence, or in young people presenting alone, this is most likely a reflection of increased need or from changes to services. These proportions could be expected to decrease in the long term as preventative strategies are implemented.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -178,28 +181,16 @@
     <t xml:space="preserve">The SHSC does not report on NPAH initiatives exclusively, it also includes services funded under the National Affordable Housing Agreement.</t>
   </si>
   <si>
-    <t xml:space="preserve">A proportion of young clients presenting alone also experienced domestic and family violence. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Data sourced from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection, AIHW Specialist Homelessness Services Collection Annual report 2015-16 and Report on Government Services 2017</t>
-    </r>
+    <t xml:space="preserve">The number of initiatives delivered does not necessarily provide an indication of the scale, reach and effectiveness of services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That a proportion of young clients presenting alone also experienced domestic and family violence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection, AIHW Specialist Homelessness Services Collection Annual report 2015-16 and Report on Government Services 2017</t>
   </si>
 </sst>
 </file>
@@ -211,7 +202,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -232,6 +223,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -277,35 +349,78 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -331,7 +446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,25 +470,69 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,23 +540,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,51 +568,70 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -465,7 +643,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -481,7 +659,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -510,19 +688,19 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="19" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1197,22 +1375,22 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="58.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="9" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="58.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="9" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,17 +1584,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="132.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,46 +1629,59 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="72.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="15" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
